--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxth\OneDrive\Desktop\PsychShift\PsychShift\Assets\Editor\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma058102\Documents\GitHub\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AEFFAF-E06F-49FC-B437-473D0D24A330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238832B3-B34E-419A-A0FD-521317AB6F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="A2:J10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -1035,11 +1035,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ref="B19:B27" si="0">ROUND((B2*(1/D2))*$C$17,0)</f>
-        <v>250</v>
+        <v>345</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:C27" si="1">B2*E2*$C$17</f>
-        <v>2250</v>
+        <v>3105</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" ref="D19:D27" si="2">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 2, FALSE)/B19,3)," Sec")</f>
@@ -1050,11 +1050,11 @@
       </c>
       <c r="G19" s="1">
         <f>ROUND(((B2*(1/D2))*$H$17)*C2*$H$16,0)</f>
-        <v>750</v>
+        <v>1035</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ref="H19:H27" si="3">B2*E2*$C$17</f>
-        <v>2250</v>
+        <v>3105</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" ref="I19:I27" si="4">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 2, FALSE)/G19,3)," Sec")</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0.427 Sec</v>
+        <v>0.59 Sec</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.143 Sec</v>
+        <v>0.197 Sec</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0.125 Sec</v>
+        <v>0.173 Sec</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.05 Sec</v>
+        <v>0.069 Sec</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0.5 Sec</v>
+        <v>0.69 Sec</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.2 Sec</v>
+        <v>0.276 Sec</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.25 Sec</v>
+        <v>1.725 Sec</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.5 Sec</v>
+        <v>0.69 Sec</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3.333 Sec</v>
+        <v>4.6 Sec</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1.316 Sec</v>
+        <v>1.816 Sec</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2.5 Sec</v>
+        <v>3.45 Sec</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1 Sec</v>
+        <v>1.38 Sec</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.25 Sec</v>
+        <v>1.725 Sec</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.5 Sec</v>
+        <v>0.69 Sec</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0.25 Sec</v>
+        <v>0.345 Sec</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.1 Sec</v>
+        <v>0.138 Sec</v>
       </c>
     </row>
   </sheetData>

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma058102\Documents\GitHub\PsychShift\PsychShift\Assets\Editor\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxth\OneDrive\Desktop\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238832B3-B34E-419A-A0FD-521317AB6F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A48A95-4612-443A-A9BE-9AFFDFC7A5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -1014,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
@@ -1035,30 +1035,30 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ref="B19:B27" si="0">ROUND((B2*(1/D2))*$C$17,0)</f>
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:C27" si="1">B2*E2*$C$17</f>
-        <v>3105</v>
+        <v>2250</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" ref="D19:D27" si="2">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 2, FALSE)/B19,3)," Sec")</f>
-        <v>0.2 Sec</v>
+        <v>0.08 Sec</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="1">
         <f>ROUND(((B2*(1/D2))*$H$17)*C2*$H$16,0)</f>
-        <v>1035</v>
+        <v>750</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ref="H19:H27" si="3">B2*E2*$C$17</f>
-        <v>3105</v>
+        <v>2250</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" ref="I19:I27" si="4">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 2, FALSE)/G19,3)," Sec")</f>
-        <v>0.067 Sec</v>
+        <v>0.027 Sec</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0.59 Sec</v>
+        <v>0.171 Sec</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.197 Sec</v>
+        <v>0.057 Sec</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0.173 Sec</v>
+        <v>0.05 Sec</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.069 Sec</v>
+        <v>0.02 Sec</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0.69 Sec</v>
+        <v>0.2 Sec</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.276 Sec</v>
+        <v>0.08 Sec</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.725 Sec</v>
+        <v>0.5 Sec</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.69 Sec</v>
+        <v>0.2 Sec</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.6 Sec</v>
+        <v>1.333 Sec</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1.816 Sec</v>
+        <v>0.526 Sec</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3.45 Sec</v>
+        <v>1 Sec</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1.38 Sec</v>
+        <v>0.4 Sec</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.725 Sec</v>
+        <v>0.5 Sec</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.69 Sec</v>
+        <v>0.2 Sec</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0.345 Sec</v>
+        <v>0.1 Sec</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.138 Sec</v>
+        <v>0.04 Sec</v>
       </c>
     </row>
   </sheetData>

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxth\OneDrive\Desktop\PsychShift\PsychShift\Assets\Editor\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma058102\Documents\GitHub\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A48A95-4612-443A-A9BE-9AFFDFC7A5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F32C739-F4F3-4EFE-A682-AC4D5869E0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Weapon</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>~</t>
+  </si>
+  <si>
+    <t>Average Health:</t>
+  </si>
+  <si>
+    <t>TTK Average</t>
+  </si>
+  <si>
+    <t>TTK Enemy</t>
   </si>
 </sst>
 </file>
@@ -575,7 +584,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,6 +982,13 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <f>100</f>
+        <v>100</v>
+      </c>
       <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
@@ -990,7 +1006,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
@@ -1014,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
@@ -1042,8 +1061,12 @@
         <v>2250</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" ref="D19:D27" si="2">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 2, FALSE)/B19,3)," Sec")</f>
-        <v>0.08 Sec</v>
+        <f>CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 6, FALSE)/B19,3)," Sec")</f>
+        <v>0.4 Sec</v>
+      </c>
+      <c r="E19" t="str">
+        <f>CONCATENATE(ROUND($B$16/B19, 3)," Sec")</f>
+        <v>0.4 Sec</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -1053,12 +1076,12 @@
         <v>750</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ref="H19:H27" si="3">B2*E2*$C$17</f>
+        <f t="shared" ref="H19:H27" si="2">B2*E2*$C$17</f>
         <v>2250</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f t="shared" ref="I19:I27" si="4">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 2, FALSE)/G19,3)," Sec")</f>
-        <v>0.027 Sec</v>
+        <f>CONCATENATE(ROUND(VLOOKUP($I$18, A:F, 6, FALSE)/G19,3)," Sec")</f>
+        <v>0.133 Sec</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1074,23 +1097,27 @@
         <v>700</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0.171 Sec</v>
+        <f>CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 6, FALSE)/B20,3)," Sec")</f>
+        <v>0.855 Sec</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ref="E20:E27" si="3">CONCATENATE(ROUND($B$16/B20, 3)," Sec")</f>
+        <v>0.855 Sec</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G27" si="5">ROUND((B3*(1/D3))*$H$17+((B3*(1/D3))*$H$17)*C3*$H$16,0)</f>
+        <f t="shared" ref="G20:G27" si="4">ROUND((B3*(1/D3))*$H$17+((B3*(1/D3))*$H$17)*C3*$H$16,0)</f>
         <v>350</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>0.057 Sec</v>
+        <f t="shared" ref="I20:I27" si="5">CONCATENATE(ROUND(VLOOKUP($I$18, A:F, 6, FALSE)/G20,3)," Sec")</f>
+        <v>0.286 Sec</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1106,23 +1133,27 @@
         <v>1000</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0.05 Sec</v>
+        <f t="shared" ref="D21:D27" si="6">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 6, FALSE)/B21,3)," Sec")</f>
+        <v>0.25 Sec</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>0.25 Sec</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="1">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="I21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>0.02 Sec</v>
+        <v>0.1 Sec</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1138,23 +1169,27 @@
         <v>600</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0.2 Sec</v>
+        <f t="shared" si="6"/>
+        <v>1 Sec</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>1 Sec</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="1">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="I22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>0.08 Sec</v>
+        <v>0.4 Sec</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1170,23 +1205,27 @@
         <v>1600</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0.5 Sec</v>
+        <f t="shared" si="6"/>
+        <v>2.5 Sec</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>2.5 Sec</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="I23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>0.2 Sec</v>
+        <v>1 Sec</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1202,23 +1241,27 @@
         <v>90</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>1.333 Sec</v>
+        <f t="shared" si="6"/>
+        <v>6.667 Sec</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>6.667 Sec</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="1">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="I24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>0.526 Sec</v>
+        <v>2.632 Sec</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1234,23 +1277,27 @@
         <v>100</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>1 Sec</v>
+        <f t="shared" si="6"/>
+        <v>5 Sec</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>5 Sec</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>0.4 Sec</v>
+        <v>2 Sec</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1266,23 +1313,27 @@
         <v>1200</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0.5 Sec</v>
+        <f t="shared" si="6"/>
+        <v>2.5 Sec</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>2.5 Sec</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="I26" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>0.2 Sec</v>
+        <v>1 Sec</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1298,23 +1349,27 @@
         <v>200</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0.1 Sec</v>
+        <f t="shared" si="6"/>
+        <v>0.5 Sec</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>0.5 Sec</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="1">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>0.04 Sec</v>
+        <v>0.2 Sec</v>
       </c>
     </row>
   </sheetData>

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma058102\Documents\GitHub\PsychShift\PsychShift\Assets\Editor\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxth\OneDrive\Desktop\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F32C739-F4F3-4EFE-A682-AC4D5869E0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB6CDCB-DF22-46F5-A5C6-ABC24DB0AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Weapon</t>
   </si>
@@ -95,21 +95,9 @@
     <t>At Acurracy (0 - 1):</t>
   </si>
   <si>
-    <t>Walk Speed</t>
-  </si>
-  <si>
-    <t>Wall Speed</t>
-  </si>
-  <si>
     <t>Crit Accuracy (0-1):</t>
   </si>
   <si>
-    <t>Ground Jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall Jump </t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
@@ -123,6 +111,15 @@
   </si>
   <si>
     <t>TTK Enemy</t>
+  </si>
+  <si>
+    <t>No Falloff range</t>
+  </si>
+  <si>
+    <t>Max Falloff Distance</t>
+  </si>
+  <si>
+    <t>Falloff Ratio</t>
   </si>
 </sst>
 </file>
@@ -187,10 +184,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -235,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{814210BD-2EF3-4CD3-B1D8-4B2062515469}" name="Table3" displayName="Table3" ref="A1:J11" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="A1:J11" xr:uid="{814210BD-2EF3-4CD3-B1D8-4B2062515469}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{814210BD-2EF3-4CD3-B1D8-4B2062515469}" name="Table3" displayName="Table3" ref="A1:I11" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I11" xr:uid="{814210BD-2EF3-4CD3-B1D8-4B2062515469}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -246,19 +240,17 @@
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{62D694E6-FDBF-4FFC-A676-8631A653469F}" name="Weapon" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{BAEC8F8D-4E22-4E96-A936-46B900587AA0}" name="Damage" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{4067D311-D36E-4659-8730-204846B3B2D6}" name="Crit Dmg" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{49D0C156-22A0-4741-A51A-F896403C0F7A}" name="RoF" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{6C424D53-5C71-4E08-8C92-910CF38E342D}" name="Clip Size" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FD941F29-CEDD-4CF5-BE20-409C308989E9}" name="Enemy Health" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{257448F4-DD28-4303-ADFD-138186A9AB01}" name="Walk Speed" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{C5AB20A0-C3EC-46C6-9D0B-9718A2E6D1E9}" name="Wall Speed" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6A308487-7E74-48B3-B0B6-1F16F38E4197}" name="Ground Jump" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{B0A0ECA5-EA6F-4147-BBCD-7553588ACF8C}" name="Wall Jump " dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{62D694E6-FDBF-4FFC-A676-8631A653469F}" name="Weapon" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{BAEC8F8D-4E22-4E96-A936-46B900587AA0}" name="Damage" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4067D311-D36E-4659-8730-204846B3B2D6}" name="Crit Dmg" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{49D0C156-22A0-4741-A51A-F896403C0F7A}" name="RoF" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6C424D53-5C71-4E08-8C92-910CF38E342D}" name="Clip Size" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FD941F29-CEDD-4CF5-BE20-409C308989E9}" name="Enemy Health" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EB856784-23BE-4B72-B9B4-D337FA986716}" name="No Falloff range" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{3E4F649D-A500-44B5-8547-17EEB9FAF829}" name="Max Falloff Distance" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{C3FDC246-FDF0-4043-8FE6-AF2E781298B6}" name="Falloff Ratio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -584,12 +576,17 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A12" sqref="A12:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="13.85546875" customWidth="1"/>
+    <col min="1" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="10" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
     <col min="19" max="20" width="9.42578125" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
     <col min="22" max="22" width="19.7109375" customWidth="1"/>
@@ -617,16 +614,13 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -649,16 +643,13 @@
         <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J2" s="1">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,16 +672,13 @@
         <v>50</v>
       </c>
       <c r="G3" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -713,16 +701,13 @@
         <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -745,16 +730,13 @@
         <v>100</v>
       </c>
       <c r="G5" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -777,16 +759,13 @@
         <v>200</v>
       </c>
       <c r="G6" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I6" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -809,16 +788,13 @@
         <v>100</v>
       </c>
       <c r="G7" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,16 +817,13 @@
         <v>400</v>
       </c>
       <c r="G8" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -873,16 +846,13 @@
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -905,21 +875,18 @@
         <v>100</v>
       </c>
       <c r="G10" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J10" s="1">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -929,11 +896,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -983,14 +949,14 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <f>100</f>
         <v>100</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1">
@@ -1006,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
@@ -1129,7 +1095,7 @@
         <v>400</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f>B4*E4*$C$17</f>
         <v>1000</v>
       </c>
       <c r="D21" s="1" t="str">

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxth\OneDrive\Desktop\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB6CDCB-DF22-46F5-A5C6-ABC24DB0AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B013E91-60E9-4F49-A072-CBD846851434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Weapon</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Falloff Ratio</t>
+  </si>
+  <si>
+    <t>Bullets Per Shot</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -229,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{814210BD-2EF3-4CD3-B1D8-4B2062515469}" name="Table3" displayName="Table3" ref="A1:I11" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I11" xr:uid="{814210BD-2EF3-4CD3-B1D8-4B2062515469}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{814210BD-2EF3-4CD3-B1D8-4B2062515469}" name="Table3" displayName="Table3" ref="A1:J11" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A1:J11" xr:uid="{814210BD-2EF3-4CD3-B1D8-4B2062515469}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -240,17 +246,19 @@
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{62D694E6-FDBF-4FFC-A676-8631A653469F}" name="Weapon" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{BAEC8F8D-4E22-4E96-A936-46B900587AA0}" name="Damage" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{4067D311-D36E-4659-8730-204846B3B2D6}" name="Crit Dmg" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{49D0C156-22A0-4741-A51A-F896403C0F7A}" name="RoF" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6C424D53-5C71-4E08-8C92-910CF38E342D}" name="Clip Size" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{FD941F29-CEDD-4CF5-BE20-409C308989E9}" name="Enemy Health" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EB856784-23BE-4B72-B9B4-D337FA986716}" name="No Falloff range" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{3E4F649D-A500-44B5-8547-17EEB9FAF829}" name="Max Falloff Distance" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{C3FDC246-FDF0-4043-8FE6-AF2E781298B6}" name="Falloff Ratio" dataDxfId="0"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{62D694E6-FDBF-4FFC-A676-8631A653469F}" name="Weapon" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BAEC8F8D-4E22-4E96-A936-46B900587AA0}" name="Damage" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4067D311-D36E-4659-8730-204846B3B2D6}" name="Crit Dmg" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{49D0C156-22A0-4741-A51A-F896403C0F7A}" name="RoF" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{6C424D53-5C71-4E08-8C92-910CF38E342D}" name="Clip Size" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FD941F29-CEDD-4CF5-BE20-409C308989E9}" name="Enemy Health" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{EB856784-23BE-4B72-B9B4-D337FA986716}" name="No Falloff range" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{3E4F649D-A500-44B5-8547-17EEB9FAF829}" name="Max Falloff Distance" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{C3FDC246-FDF0-4043-8FE6-AF2E781298B6}" name="Falloff Ratio" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{5E10BFF7-B155-49B1-842B-64127A777B80}" name="Bullets Per Shot" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,7 +584,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +592,8 @@
     <col min="1" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
     <col min="19" max="20" width="9.42578125" customWidth="1"/>
@@ -622,6 +631,9 @@
       <c r="I1" t="s">
         <v>27</v>
       </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -649,7 +661,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -678,7 +693,10 @@
         <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -701,13 +719,16 @@
         <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -738,6 +759,9 @@
       <c r="I5" s="1">
         <v>0.5</v>
       </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -765,7 +789,10 @@
         <v>100</v>
       </c>
       <c r="I6" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -794,7 +821,10 @@
         <v>100</v>
       </c>
       <c r="I7" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -823,7 +853,10 @@
         <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -831,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>1.5</v>
@@ -846,13 +879,16 @@
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -881,7 +917,10 @@
         <v>100</v>
       </c>
       <c r="I10" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -896,6 +935,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1019,11 +1059,11 @@
         <v>7</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ref="B19:B27" si="0">ROUND((B2*(1/D2))*$C$17,0)</f>
+        <f>ROUND((B2*(1/D2))*J2*$C$17,0)</f>
         <v>250</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:C27" si="1">B2*E2*$C$17</f>
+        <f t="shared" ref="C19:C27" si="0">B2*E2*$C$17</f>
         <v>2250</v>
       </c>
       <c r="D19" s="1" t="str">
@@ -1038,11 +1078,11 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <f>ROUND(((B2*(1/D2))*$H$17)*C2*$H$16,0)</f>
+        <f>ROUND(((B2*(1/D2))*J2*$H$17)*C2*$H$16,0)</f>
         <v>750</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ref="H19:H27" si="2">B2*E2*$C$17</f>
+        <f t="shared" ref="H19:H27" si="1">B2*E2*$C$17</f>
         <v>2250</v>
       </c>
       <c r="I19" s="1" t="str">
@@ -1055,11 +1095,11 @@
         <v>8</v>
       </c>
       <c r="B20" s="1">
+        <f t="shared" ref="B20:B27" si="2">ROUND((B3*(1/D3))*J3*$C$17,0)</f>
+        <v>117</v>
+      </c>
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="D20" s="1" t="str">
@@ -1074,16 +1114,16 @@
         <v>8</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G27" si="4">ROUND((B3*(1/D3))*$H$17+((B3*(1/D3))*$H$17)*C3*$H$16,0)</f>
-        <v>350</v>
+        <f t="shared" ref="G20:G27" si="4">ROUND(((B3*(1/D3))*J3*$H$17)*C3*$H$16,0)</f>
+        <v>233</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" ref="I20:I27" si="5">CONCATENATE(ROUND(VLOOKUP($I$18, A:F, 6, FALSE)/G20,3)," Sec")</f>
-        <v>0.286 Sec</v>
+        <v>0.429 Sec</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1091,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="C21" s="1">
@@ -1111,15 +1151,15 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.1 Sec</v>
+        <v>0.167 Sec</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1127,11 +1167,11 @@
         <v>10</v>
       </c>
       <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="D22" s="1" t="str">
@@ -1147,15 +1187,15 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.4 Sec</v>
+        <v>0.667 Sec</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1163,11 +1203,11 @@
         <v>13</v>
       </c>
       <c r="B23" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="D23" s="1" t="str">
@@ -1183,15 +1223,15 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1 Sec</v>
+        <v>1.667 Sec</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1199,11 +1239,11 @@
         <v>12</v>
       </c>
       <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D24" s="1" t="str">
@@ -1219,15 +1259,15 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2.632 Sec</v>
+        <v>4.348 Sec</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1235,11 +1275,11 @@
         <v>11</v>
       </c>
       <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D25" s="1" t="str">
@@ -1255,15 +1295,15 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2 Sec</v>
+        <v>3.333 Sec</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1271,35 +1311,35 @@
         <v>14</v>
       </c>
       <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>2.5 Sec</v>
+        <v>3.333 Sec</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>2.5 Sec</v>
+        <v>3.333 Sec</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1 Sec</v>
+        <v>2.222 Sec</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1307,11 +1347,11 @@
         <v>15</v>
       </c>
       <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D27" s="1" t="str">
@@ -1327,15 +1367,15 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.2 Sec</v>
+        <v>0.333 Sec</v>
       </c>
     </row>
   </sheetData>

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxth\OneDrive\Desktop\PsychShift\PsychShift\Assets\Editor\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\OneDrive\Desktop\WorkShop_Unity_FILE\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B013E91-60E9-4F49-A072-CBD846851434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ECAC98-7A4E-4F38-BA2E-EF55B491FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kevin</author>
+  </authors>
+  <commentList>
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{57FBA720-BFAE-4D4A-899A-3C087716B236}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kevin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Creates a numerical value that states the value of a character based on its health and max damage per clip</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{844D2C48-459D-4BD0-B72F-01B820E58351}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kevin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Creates a numerical value that shows the threat level of an enemy based on damage and health since enemies don't have to account for damage numbers.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Weapon</t>
   </si>
@@ -123,13 +181,28 @@
   </si>
   <si>
     <t>Bullets Per Shot</t>
+  </si>
+  <si>
+    <t>Enemy Threat</t>
+  </si>
+  <si>
+    <t>Player Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much better is the player? </t>
+  </si>
+  <si>
+    <t>Dmg per health</t>
+  </si>
+  <si>
+    <t>Ammo per health</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +222,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,6 +318,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,11 +670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF55155-2BFE-4053-BC64-D3E83E8EC6E2}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF55155-2BFE-4053-BC64-D3E83E8EC6E2}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +739,7 @@
         <v>0.2</v>
       </c>
       <c r="E2" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -704,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>1.5</v>
@@ -713,7 +803,7 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>40</v>
@@ -736,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1">
         <v>1.5</v>
@@ -745,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1">
         <v>25</v>
@@ -768,7 +858,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>1.5</v>
@@ -832,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C8" s="1">
         <v>1.5</v>
@@ -841,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1">
         <v>25</v>
@@ -873,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>20</v>
@@ -992,8 +1082,8 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <f>100</f>
-        <v>100</v>
+        <f>AVERAGE(F2:F10)</f>
+        <v>79.222222222222229</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>19</v>
@@ -1003,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1064,7 +1154,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:C27" si="0">B2*E2*$C$17</f>
-        <v>2250</v>
+        <v>1500</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 6, FALSE)/B19,3)," Sec")</f>
@@ -1072,7 +1162,7 @@
       </c>
       <c r="E19" t="str">
         <f>CONCATENATE(ROUND($B$16/B19, 3)," Sec")</f>
-        <v>0.4 Sec</v>
+        <v>0.317 Sec</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -1083,14 +1173,14 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ref="H19:H27" si="1">B2*E2*$C$17</f>
-        <v>2250</v>
+        <v>1500</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>CONCATENATE(ROUND(VLOOKUP($I$18, A:F, 6, FALSE)/G19,3)," Sec")</f>
         <v>0.133 Sec</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1198,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" ref="E20:E27" si="3">CONCATENATE(ROUND($B$16/B20, 3)," Sec")</f>
-        <v>0.855 Sec</v>
+        <v>0.677 Sec</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1126,115 +1216,115 @@
         <v>0.429 Sec</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C21" s="1">
         <f>B4*E4*$C$17</f>
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" ref="D21:D27" si="6">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 6, FALSE)/B21,3)," Sec")</f>
-        <v>0.25 Sec</v>
+        <v>0.333 Sec</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="3"/>
-        <v>0.25 Sec</v>
+        <v>0.264 Sec</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.167 Sec</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.222 Sec</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1 Sec</v>
+        <v>1.333 Sec</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="3"/>
-        <v>1 Sec</v>
+        <v>1.056 Sec</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.667 Sec</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.885 Sec</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>2.5 Sec</v>
+        <v>5 Sec</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="3"/>
-        <v>2.5 Sec</v>
+        <v>3.961 Sec</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1.667 Sec</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.333 Sec</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1342,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="3"/>
-        <v>6.667 Sec</v>
+        <v>5.281 Sec</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1270,43 +1360,43 @@
         <v>4.348 Sec</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>5 Sec</v>
+        <v>1.25 Sec</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="3"/>
-        <v>5 Sec</v>
+        <v>0.99 Sec</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3.333 Sec</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.833 Sec</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1406,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="6"/>
@@ -1324,7 +1414,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>3.333 Sec</v>
+        <v>2.641 Sec</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -1335,14 +1425,14 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="5"/>
         <v>2.222 Sec</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1450,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="3"/>
-        <v>0.5 Sec</v>
+        <v>0.396 Sec</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1376,6 +1466,250 @@
       <c r="I27" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0.333 Sec</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <f>C19/F2</f>
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <f>E2/F2</f>
+        <v>0.3</v>
+      </c>
+      <c r="D30">
+        <f>(C19/F2)*(E2/F2)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:B38" si="7">C20/F3</f>
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C38" si="8">E3/F3</f>
+        <v>0.4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D38" si="9">(C20/F3)*(E3/F3)</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="I31">
+        <f>B19/F2</f>
+        <v>2.5</v>
+      </c>
+      <c r="J31">
+        <f>D30/I31</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="7"/>
+        <v>9.375</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="8"/>
+        <v>0.625</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>5.859375</v>
+      </c>
+      <c r="I32">
+        <f>B20/F3</f>
+        <v>2.34</v>
+      </c>
+      <c r="J32">
+        <f>D31/I32</f>
+        <v>2.3931623931623935</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <f>C22/F5</f>
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <f>E5/F5</f>
+        <v>0.16</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>1.92</v>
+      </c>
+      <c r="I33">
+        <f>B21/F4</f>
+        <v>7.5</v>
+      </c>
+      <c r="J33">
+        <f>D32/I33</f>
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <f>B22/F5</f>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f>D33/I34</f>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I35">
+        <f>B23/F6</f>
+        <v>0.1</v>
+      </c>
+      <c r="J35">
+        <f>D34/I35</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="7"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="9"/>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="I36">
+        <f>B24/F7</f>
+        <v>0.15</v>
+      </c>
+      <c r="J36">
+        <f>D35/I36</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="9"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="I37">
+        <f>B25/F8</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="J37">
+        <f>D36/I37</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="I38">
+        <f>B26/F9</f>
+        <v>1.5</v>
+      </c>
+      <c r="J38">
+        <f>D37/I38</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f>B27/F10</f>
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <f>D38/I39</f>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1393,8 +1727,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxth\OneDrive\Desktop\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B013E91-60E9-4F49-A072-CBD846851434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82306BF5-A617-4A3F-ABAD-6B6DB751C51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -754,10 +754,10 @@
         <v>25</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>100</v>
       </c>
       <c r="I7" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -864,13 +864,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>1.5</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -879,13 +879,13 @@
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J9" s="1">
         <v>10</v>
@@ -902,7 +902,7 @@
         <v>1.5</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>100</v>
       </c>
       <c r="I10" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1312,34 +1312,34 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>333</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>3.333 Sec</v>
+        <v>0.3 Sec</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>3.333 Sec</v>
+        <v>0.3 Sec</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2.222 Sec</v>
+        <v>0.2 Sec</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
@@ -1356,18 +1356,18 @@
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0.5 Sec</v>
+        <v>2.5 Sec</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="3"/>
-        <v>0.5 Sec</v>
+        <v>2.5 Sec</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.333 Sec</v>
+        <v>1.667 Sec</v>
       </c>
     </row>
   </sheetData>

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxth\OneDrive\Desktop\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82306BF5-A617-4A3F-ABAD-6B6DB751C51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563E5B9-AD78-4903-BDBB-334A50F8FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="1">
         <v>0.2</v>
@@ -675,7 +675,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="1">
         <v>0.3</v>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="G19" s="1">
         <f>ROUND(((B2*(1/D2))*J2*$H$17)*C2*$H$16,0)</f>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ref="H19:H27" si="1">B2*E2*$C$17</f>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="I19" s="1" t="str">
         <f>CONCATENATE(ROUND(VLOOKUP($I$18, A:F, 6, FALSE)/G19,3)," Sec")</f>
-        <v>0.133 Sec</v>
+        <v>0.267 Sec</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" ref="G20:G27" si="4">ROUND(((B3*(1/D3))*J3*$H$17)*C3*$H$16,0)</f>
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" ref="I20:I27" si="5">CONCATENATE(ROUND(VLOOKUP($I$18, A:F, 6, FALSE)/G20,3)," Sec")</f>
-        <v>0.429 Sec</v>
+        <v>0.571 Sec</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxth\OneDrive\Desktop\PsychShift\PsychShift\Assets\Editor\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carso\OneDrive\Desktop\Unity Games\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563E5B9-AD78-4903-BDBB-334A50F8FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3220A64-33F7-4A6F-8F4F-D685E39A8003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -768,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>1.5</v>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C21" s="1">
         <f>B4*E4*$C$17</f>
@@ -1140,18 +1140,18 @@
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" ref="D21:D27" si="6">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 6, FALSE)/B21,3)," Sec")</f>
-        <v>0.25 Sec</v>
+        <v>0.5 Sec</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="3"/>
-        <v>0.25 Sec</v>
+        <v>0.5 Sec</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.167 Sec</v>
+        <v>0.333 Sec</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1204,34 +1204,34 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>2.5 Sec</v>
+        <v>1 Sec</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="3"/>
-        <v>2.5 Sec</v>
+        <v>1 Sec</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1.667 Sec</v>
+        <v>0.667 Sec</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carso\OneDrive\Desktop\Unity Games\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3220A64-33F7-4A6F-8F4F-D685E39A8003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E5C4799-DAE1-475B-8560-06A0AD7AB68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
         <v>1.5</v>
@@ -704,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>1.5</v>
@@ -768,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>1.5</v>
@@ -1060,34 +1060,34 @@
       </c>
       <c r="B19" s="1">
         <f>ROUND((B2*(1/D2))*J2*$C$17,0)</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:C27" si="0">B2*E2*$C$17</f>
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 6, FALSE)/B19,3)," Sec")</f>
-        <v>0.4 Sec</v>
+        <v>0.5 Sec</v>
       </c>
       <c r="E19" t="str">
         <f>CONCATENATE(ROUND($B$16/B19, 3)," Sec")</f>
-        <v>0.4 Sec</v>
+        <v>0.5 Sec</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="1">
         <f>ROUND(((B2*(1/D2))*J2*$H$17)*C2*$H$16,0)</f>
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ref="H19:H27" si="1">B2*E2*$C$17</f>
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>CONCATENATE(ROUND(VLOOKUP($I$18, A:F, 6, FALSE)/G19,3)," Sec")</f>
-        <v>0.267 Sec</v>
+        <v>0.333 Sec</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1132,34 +1132,34 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C21" s="1">
         <f>B4*E4*$C$17</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" ref="D21:D27" si="6">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 6, FALSE)/B21,3)," Sec")</f>
-        <v>0.5 Sec</v>
+        <v>0.333 Sec</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="3"/>
-        <v>0.5 Sec</v>
+        <v>0.333 Sec</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.333 Sec</v>
+        <v>0.222 Sec</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1204,34 +1204,34 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1 Sec</v>
+        <v>0.5 Sec</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="3"/>
-        <v>1 Sec</v>
+        <v>0.5 Sec</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.667 Sec</v>
+        <v>0.333 Sec</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">

--- a/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
+++ b/PsychShift/Assets/Editor/CSV/EnemyExcelChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carso\OneDrive\Desktop\Unity Games\PsychShift\PsychShift\Assets\Editor\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E5C4799-DAE1-475B-8560-06A0AD7AB68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC2BCF3-9B4E-46A8-9F55-BA08CA336CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CBE73A3-79C0-44EA-87C7-E817604DF246}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A12" sqref="A12:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,13 +704,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>1.5</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -722,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
         <v>0.2</v>
@@ -754,7 +754,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I5" s="1">
         <v>0.6</v>
@@ -768,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>1.5</v>
@@ -1132,34 +1132,34 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="C21" s="1">
         <f>B4*E4*$C$17</f>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" ref="D21:D27" si="6">CONCATENATE(ROUND(VLOOKUP($D$18, A:F, 6, FALSE)/B21,3)," Sec")</f>
-        <v>0.333 Sec</v>
+        <v>0.375 Sec</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="3"/>
-        <v>0.333 Sec</v>
+        <v>0.375 Sec</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.222 Sec</v>
+        <v>0.25 Sec</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1204,34 +1204,34 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0.5 Sec</v>
+        <v>0.25 Sec</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="3"/>
-        <v>0.5 Sec</v>
+        <v>0.25 Sec</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.333 Sec</v>
+        <v>0.167 Sec</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
